--- a/alpha_team/test_scenario.xlsx
+++ b/alpha_team/test_scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="20040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:CRTarget Flags="2048"/>
+      <mx:CRTarget Flags="-1"/>
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -20,9 +20,516 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>テストシナリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果（チェック）</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したユーザ名、パスワードでログイン出来る</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録していないユーザ名、パスワードでログイン出来ない</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitterアカウントでログインできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facebookアカウントでログインできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各入力フォームに正しく入力すると確認画面に飛ぶ</t>
+    <rPh sb="0" eb="3">
+      <t>カクニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各入力フォームに不正な値を入力するとエラー文が表示される</t>
+    <rPh sb="0" eb="3">
+      <t>カクニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ボタンを押して登録確認画面に行ける</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンを押したらログイン画面に戻れる</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録確認画面</t>
+    <rPh sb="3" eb="9">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタンを押して登録完了出来る</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンを押したらユーザ登録画面に戻れる</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録が成功したらユーザページへ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果からスポット詳細画面へ遷移できる</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポット検索ができる(天気も)</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポット投稿ボタンを押したらスポット投稿ページへ遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトボタンを押したらログアウトし，ログイン画面へ遷移する</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポット投稿画面</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンを押したらユーザページに戻れる</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポット投稿確認画面</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンを押したらスポット投稿画面に戻れる</t>
+    <rPh sb="14" eb="16">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ボタンを押して投稿完了出来る</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿が成功したら投稿したスポット詳細画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ボタンを押して投稿確認画面に行ける</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポット詳細画面</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギャラリーボタンを押すとギャラリー画面へ遷移する</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントが投稿できる</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードされた画像がランダムで1枚出力されている</t>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポットに対してのコメントが出力されている</t>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギャラリー画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像を投稿できる</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されているスポット画像が全て出力されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンを押すとスポット詳細画面へ戻れる</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンを押すとユーザページに戻れる</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポット共有システム</t>
+    <rPh sb="4" eb="6">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザページ画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -30,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,6 +560,45 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -62,7 +608,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -70,16 +616,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -408,20 +1283,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="19" thickBot="1"/>
+    <row r="3" spans="1:5" ht="30" thickBot="1">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57">
+      <c r="A4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="70">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="44">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="20">
+        <v>3</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="45" thickBot="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="22">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="57">
+      <c r="A8" s="9"/>
+      <c r="B8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="25">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="57">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="20">
+        <v>6</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="70">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="20">
+        <v>7</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="58" thickBot="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="22">
+        <v>8</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="57">
+      <c r="A12" s="9"/>
+      <c r="B12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="25">
+        <v>9</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="44">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="20">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="58" thickBot="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="22">
+        <v>11</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="44">
+      <c r="A15" s="9"/>
+      <c r="B15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="25">
+        <v>12</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="70">
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="20">
+        <v>13</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="57">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="20">
+        <v>14</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="84" thickBot="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="22">
+        <v>15</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="57">
+      <c r="A19" s="9"/>
+      <c r="B19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="25">
+        <v>16</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="57">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="20">
+        <v>17</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="70">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="20">
+        <v>18</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="58" thickBot="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="22">
+        <v>19</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="57">
+      <c r="A23" s="9"/>
+      <c r="B23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="25">
+        <v>20</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="44">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="20">
+        <v>21</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="71" thickBot="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="22">
+        <v>22</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="57">
+      <c r="A26" s="9"/>
+      <c r="B26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="25">
+        <v>23</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="31">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="20">
+        <v>24</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="70">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="20">
+        <v>25</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="57">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="20">
+        <v>26</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="58" thickBot="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="22">
+        <v>27</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="31">
+      <c r="A31" s="9"/>
+      <c r="B31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="25">
+        <v>28</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="57">
+      <c r="A32" s="9"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="20">
+        <v>29</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="58" thickBot="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="22">
+        <v>30</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A4:A33"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B33"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
